--- a/stripped/S60025.mes.bin.xlsx
+++ b/stripped/S60025.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209AAC50-BECD-47AF-95ED-C535FFF46BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73821C92-AE6B-4E72-A765-44F1F2A3FC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16275" yWindow="6510" windowWidth="33855" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S60025.mes.bin" sheetId="1" r:id="rId1"/>

--- a/stripped/S60025.mes.bin.xlsx
+++ b/stripped/S60025.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73821C92-AE6B-4E72-A765-44F1F2A3FC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B582C1DA-8C01-42B0-A1AA-BB5CA4FACA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="5460" windowWidth="50850" windowHeight="21795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S60025.mes.bin" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="319">
   <si>
     <t>Status</t>
   </si>
@@ -236,16 +236,19 @@
     <t>117</t>
   </si>
   <si>
-    <t>^Yuki-san...^</t>
+    <t>^Ah, Yuki...^</t>
   </si>
   <si>
     <t>119</t>
   </si>
   <si>
+    <t>^Yuki-san, you should wait for us here.^</t>
+  </si>
+  <si>
     <t>121</t>
   </si>
   <si>
-    <t>She brings her fine-featured face closer to Yuki-san's before\nlightly pushing her back down.</t>
+    <t>She brings her fine-featured face closer to Yuki's before\nlightly pushing her back down.</t>
   </si>
   <si>
     <t>123</t>
@@ -264,6 +267,9 @@
   </si>
   <si>
     <t>133</t>
+  </si>
+  <si>
+    <t>^Yes. I can do that, Yayoi-san.^</t>
   </si>
   <si>
     <t>135</t>
@@ -1378,7 +1384,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2310,7 +2318,9 @@
         <v>43</v>
       </c>
       <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
+      <c r="F61" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
@@ -2319,13 +2329,13 @@
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -2335,7 +2345,7 @@
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
@@ -2351,7 +2361,7 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
@@ -2367,7 +2377,7 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -2381,7 +2391,7 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
@@ -2397,7 +2407,7 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -2411,14 +2421,16 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -2427,7 +2439,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -2441,7 +2453,7 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
@@ -2449,7 +2461,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -2459,7 +2471,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -2473,7 +2485,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
@@ -2489,7 +2501,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -2503,7 +2515,7 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2517,7 +2529,7 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
@@ -2533,7 +2545,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
@@ -2541,7 +2553,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -2551,7 +2563,7 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -2565,7 +2577,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
@@ -2581,7 +2593,7 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
@@ -2589,7 +2601,7 @@
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
@@ -2599,7 +2611,7 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -2613,7 +2625,7 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
@@ -2629,7 +2641,7 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
@@ -2645,7 +2657,7 @@
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -2659,7 +2671,7 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
@@ -2675,7 +2687,7 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -2689,7 +2701,7 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
@@ -2705,7 +2717,7 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -2719,7 +2731,7 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2733,7 +2745,7 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -2747,7 +2759,7 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2761,7 +2773,7 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
@@ -2777,7 +2789,7 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
@@ -2793,7 +2805,7 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -2807,7 +2819,7 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
@@ -2815,7 +2827,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -2825,7 +2837,7 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -2839,7 +2851,7 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
@@ -2855,7 +2867,7 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
@@ -2863,7 +2875,7 @@
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
@@ -2873,7 +2885,7 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -2887,7 +2899,7 @@
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -2901,7 +2913,7 @@
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
@@ -2917,7 +2929,7 @@
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -2931,7 +2943,7 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2" t="s">
@@ -2947,7 +2959,7 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
@@ -2963,7 +2975,7 @@
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -2977,7 +2989,7 @@
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
@@ -2993,7 +3005,7 @@
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2" t="s">
@@ -3009,7 +3021,7 @@
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -3023,7 +3035,7 @@
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2" t="s">
@@ -3039,7 +3051,7 @@
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
@@ -3055,7 +3067,7 @@
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -3069,7 +3081,7 @@
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -3083,7 +3095,7 @@
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2" t="s">
@@ -3099,7 +3111,7 @@
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
@@ -3115,7 +3127,7 @@
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -3129,7 +3141,7 @@
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -3143,7 +3155,7 @@
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -3157,7 +3169,7 @@
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -3171,13 +3183,13 @@
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -3187,13 +3199,13 @@
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
@@ -3203,7 +3215,7 @@
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -3217,7 +3229,7 @@
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -3231,7 +3243,7 @@
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -3245,7 +3257,7 @@
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
@@ -3253,7 +3265,7 @@
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
@@ -3263,7 +3275,7 @@
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -3277,7 +3289,7 @@
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
@@ -3293,7 +3305,7 @@
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2" t="s">
@@ -3309,7 +3321,7 @@
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="s">
@@ -3325,7 +3337,7 @@
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -3339,7 +3351,7 @@
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="s">
@@ -3347,7 +3359,7 @@
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
@@ -3357,7 +3369,7 @@
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -3371,7 +3383,7 @@
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
@@ -3387,7 +3399,7 @@
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -3401,7 +3413,7 @@
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="s">
@@ -3417,7 +3429,7 @@
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2" t="s">
@@ -3433,7 +3445,7 @@
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="s">
@@ -3449,7 +3461,7 @@
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -3463,7 +3475,7 @@
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
@@ -3479,7 +3491,7 @@
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -3493,7 +3505,7 @@
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
@@ -3509,7 +3521,7 @@
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2" t="s">
@@ -3525,7 +3537,7 @@
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
@@ -3541,7 +3553,7 @@
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2" t="s">
@@ -3549,7 +3561,7 @@
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
@@ -3559,13 +3571,13 @@
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
@@ -3575,7 +3587,7 @@
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -3589,7 +3601,7 @@
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4" t="s">
@@ -3605,13 +3617,13 @@
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
@@ -3621,7 +3633,7 @@
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -3635,7 +3647,7 @@
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -3649,7 +3661,7 @@
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -3663,13 +3675,13 @@
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
@@ -3679,7 +3691,7 @@
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -3693,7 +3705,7 @@
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2" t="s">
@@ -3701,7 +3713,7 @@
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
@@ -3711,7 +3723,7 @@
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -3725,7 +3737,7 @@
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2" t="s">
@@ -3741,7 +3753,7 @@
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -3755,7 +3767,7 @@
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2" t="s">
@@ -3763,7 +3775,7 @@
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
@@ -3773,7 +3785,7 @@
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4" t="s">
@@ -3789,7 +3801,7 @@
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2" t="s">
@@ -3805,7 +3817,7 @@
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -3819,7 +3831,7 @@
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -3833,7 +3845,7 @@
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4" t="s">
@@ -3841,7 +3853,7 @@
       </c>
       <c r="E161" s="4"/>
       <c r="F161" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
@@ -3851,13 +3863,13 @@
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
@@ -3867,7 +3879,7 @@
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4" t="s">
@@ -3875,7 +3887,7 @@
       </c>
       <c r="E163" s="4"/>
       <c r="F163" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
@@ -3885,7 +3897,7 @@
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -3899,7 +3911,7 @@
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4" t="s">
@@ -3915,7 +3927,7 @@
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2" t="s">
@@ -3931,7 +3943,7 @@
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4" t="s">
@@ -3947,7 +3959,7 @@
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2" t="s">
@@ -3963,7 +3975,7 @@
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -3977,7 +3989,7 @@
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -3991,7 +4003,7 @@
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4" t="s">
@@ -4007,7 +4019,7 @@
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2" t="s">
@@ -4023,7 +4035,7 @@
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -4037,13 +4049,13 @@
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
@@ -4053,13 +4065,13 @@
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
@@ -4069,7 +4081,7 @@
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -4083,7 +4095,7 @@
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
@@ -4097,7 +4109,7 @@
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -4111,7 +4123,7 @@
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4" t="s">
@@ -4119,7 +4131,7 @@
       </c>
       <c r="E179" s="4"/>
       <c r="F179" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
@@ -4129,7 +4141,7 @@
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -4143,7 +4155,7 @@
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
@@ -4157,7 +4169,7 @@
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -4171,7 +4183,7 @@
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
@@ -4185,7 +4197,7 @@
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2" t="s">
@@ -4201,13 +4213,13 @@
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
@@ -4217,7 +4229,7 @@
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -4231,7 +4243,7 @@
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -4245,7 +4257,7 @@
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -4259,7 +4271,7 @@
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
@@ -4273,7 +4285,7 @@
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -4287,7 +4299,7 @@
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
@@ -4301,7 +4313,7 @@
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -4315,7 +4327,7 @@
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
@@ -4329,7 +4341,7 @@
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -4343,7 +4355,7 @@
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
@@ -4357,7 +4369,7 @@
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -4371,7 +4383,7 @@
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
@@ -4385,7 +4397,7 @@
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -4399,7 +4411,7 @@
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
@@ -4413,7 +4425,7 @@
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -4427,7 +4439,7 @@
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
@@ -4441,7 +4453,7 @@
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -4455,7 +4467,7 @@
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
@@ -4469,7 +4481,7 @@
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -4483,7 +4495,7 @@
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
@@ -4497,7 +4509,7 @@
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -4511,13 +4523,13 @@
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
@@ -4527,7 +4539,7 @@
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -4541,7 +4553,7 @@
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
@@ -4555,7 +4567,7 @@
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -4569,7 +4581,7 @@
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -4583,7 +4595,7 @@
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -4597,7 +4609,7 @@
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
@@ -4611,7 +4623,7 @@
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -4625,7 +4637,7 @@
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -4639,13 +4651,13 @@
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
@@ -4655,7 +4667,7 @@
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -4669,7 +4681,7 @@
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -4683,13 +4695,13 @@
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
@@ -4699,7 +4711,7 @@
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -4713,7 +4725,7 @@
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
@@ -4727,7 +4739,7 @@
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -4741,7 +4753,7 @@
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4" t="s">
@@ -4757,7 +4769,7 @@
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2" t="s">
@@ -4773,7 +4785,7 @@
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
@@ -4787,7 +4799,7 @@
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -4801,7 +4813,7 @@
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4" t="s">
@@ -4817,7 +4829,7 @@
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -4831,7 +4843,7 @@
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4" t="s">
@@ -4839,7 +4851,7 @@
       </c>
       <c r="E229" s="4"/>
       <c r="F229" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
@@ -4849,13 +4861,13 @@
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
@@ -4865,7 +4877,7 @@
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
@@ -4879,13 +4891,13 @@
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
@@ -4895,7 +4907,7 @@
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4" t="s">
@@ -4911,13 +4923,13 @@
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
@@ -4927,13 +4939,13 @@
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
       <c r="F235" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G235" s="5"/>
       <c r="H235" s="5"/>
@@ -4943,7 +4955,7 @@
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -4957,7 +4969,7 @@
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4" t="s">
@@ -4973,7 +4985,7 @@
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2" t="s">
@@ -4989,7 +5001,7 @@
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -5003,7 +5015,7 @@
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2" t="s">
@@ -5019,7 +5031,7 @@
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
@@ -5033,7 +5045,7 @@
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2" t="s">
@@ -5049,7 +5061,7 @@
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -5063,13 +5075,13 @@
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
@@ -5079,7 +5091,7 @@
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -5093,7 +5105,7 @@
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="2" t="s">
@@ -5101,7 +5113,7 @@
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
@@ -5111,7 +5123,7 @@
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4" t="s">
@@ -5127,7 +5139,7 @@
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="2" t="s">
@@ -5143,7 +5155,7 @@
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
@@ -5157,7 +5169,7 @@
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="2" t="s">
@@ -5173,7 +5185,7 @@
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4" t="s">
@@ -5181,7 +5193,7 @@
       </c>
       <c r="E251" s="4"/>
       <c r="F251" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G251" s="5"/>
       <c r="H251" s="5"/>
@@ -5191,13 +5203,13 @@
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
@@ -5207,7 +5219,7 @@
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4" t="s">
@@ -5223,7 +5235,7 @@
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" s="2" t="s">
@@ -5239,7 +5251,7 @@
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4" t="s">
@@ -5255,7 +5267,7 @@
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -5269,7 +5281,7 @@
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -5283,7 +5295,7 @@
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" s="2" t="s">
@@ -5291,7 +5303,7 @@
       </c>
       <c r="E258" s="2"/>
       <c r="F258" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
@@ -5301,7 +5313,7 @@
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4" t="s">
@@ -5317,7 +5329,7 @@
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="2" t="s">
@@ -5333,7 +5345,7 @@
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4" t="s">
@@ -5349,7 +5361,7 @@
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
@@ -5363,7 +5375,7 @@
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4" t="s">
@@ -5379,7 +5391,7 @@
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
@@ -5393,7 +5405,7 @@
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -5407,7 +5419,7 @@
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
@@ -5421,7 +5433,7 @@
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
